--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Aussie\Monash\Macroeconometrics\Replicate\MillikenRepGali1999\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC5BF8B-95BA-4447-9BD5-F6CC710EC7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="630" windowWidth="24615" windowHeight="11445"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>GDPQ</t>
   </si>
@@ -653,18 +659,24 @@
   </si>
   <si>
     <t>1994:04</t>
+  </si>
+  <si>
+    <t>NBER</t>
+  </si>
+  <si>
+    <t>NBERG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="204"/>
-      <color theme="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -687,9 +699,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="1" borderId="0" applyFill="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,14 +711,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -745,13 +759,17 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Herb" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
@@ -778,16 +796,20 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Herb" typeface="Times New Roman"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
         <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Cans" typeface="Euphemia"/>
@@ -804,12 +826,12 @@
         <a:font script="Laoo" typeface="DokChampa"/>
         <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -835,30 +857,30 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin a:ang="16200000" scaled="1"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin a:ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -892,11 +914,19 @@
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
@@ -912,7 +942,7 @@
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <bevelT w="63500" h="25400"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -920,8 +950,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-      </a:bgFillStyleLst>
-      <a:fillStyleLst>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
@@ -967,23 +995,29 @@
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
-      </a:fillStyleLst>
+      </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrShemeLst/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X193"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="23" max="23" width="9.59765625" customWidth="1"/>
+    <col min="24" max="24" width="6.796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1047,8 +1081,14 @@
       <c r="V1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>213</v>
+      </c>
+      <c r="X1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1067,8 +1107,11 @@
       <c r="H2">
         <v>21.700000127156574</v>
       </c>
-    </row>
-    <row r="3" x14ac:dyDescent="0.25">
+      <c r="W2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1087,8 +1130,11 @@
       <c r="H3">
         <v>22.03333346048991</v>
       </c>
-    </row>
-    <row r="4" x14ac:dyDescent="0.25">
+      <c r="W3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1107,8 +1153,11 @@
       <c r="H4">
         <v>22.46666653951009</v>
       </c>
-    </row>
-    <row r="5" x14ac:dyDescent="0.25">
+      <c r="W4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1127,8 +1176,11 @@
       <c r="H5">
         <v>23.133333206176758</v>
       </c>
-    </row>
-    <row r="6" x14ac:dyDescent="0.25">
+      <c r="W5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1150,8 +1202,14 @@
       <c r="H6">
         <v>23.633333841959637</v>
       </c>
-    </row>
-    <row r="7" x14ac:dyDescent="0.25">
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1173,8 +1231,14 @@
       <c r="H7">
         <v>23.96666653951009</v>
       </c>
-    </row>
-    <row r="8" x14ac:dyDescent="0.25">
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1196,8 +1260,14 @@
       <c r="H8">
         <v>24.399999618530273</v>
       </c>
-    </row>
-    <row r="9" x14ac:dyDescent="0.25">
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -1219,8 +1289,14 @@
       <c r="H9">
         <v>24.166666666666668</v>
       </c>
-    </row>
-    <row r="10" x14ac:dyDescent="0.25">
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -1242,8 +1318,14 @@
       <c r="H10">
         <v>23.933333079020183</v>
       </c>
-    </row>
-    <row r="11" x14ac:dyDescent="0.25">
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1265,8 +1347,14 @@
       <c r="H11">
         <v>23.899999618530273</v>
       </c>
-    </row>
-    <row r="12" x14ac:dyDescent="0.25">
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1288,8 +1376,14 @@
       <c r="H12">
         <v>23.700000762939453</v>
       </c>
-    </row>
-    <row r="13" x14ac:dyDescent="0.25">
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1311,8 +1405,14 @@
       <c r="H13">
         <v>23.666667302449543</v>
       </c>
-    </row>
-    <row r="14" x14ac:dyDescent="0.25">
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1334,8 +1434,14 @@
       <c r="H14">
         <v>23.566666920979817</v>
       </c>
-    </row>
-    <row r="15" x14ac:dyDescent="0.25">
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1357,8 +1463,14 @@
       <c r="H15">
         <v>23.766666412353516</v>
       </c>
-    </row>
-    <row r="16" x14ac:dyDescent="0.25">
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1380,8 +1492,14 @@
       <c r="H16">
         <v>24.200000127156574</v>
       </c>
-    </row>
-    <row r="17" x14ac:dyDescent="0.25">
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -1403,8 +1521,14 @@
       <c r="H17">
         <v>24.700000127156574</v>
       </c>
-    </row>
-    <row r="18" x14ac:dyDescent="0.25">
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1426,8 +1550,14 @@
       <c r="H18">
         <v>25.699999491373699</v>
       </c>
-    </row>
-    <row r="19" x14ac:dyDescent="0.25">
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -1449,8 +1579,14 @@
       <c r="H19">
         <v>25.933333079020183</v>
       </c>
-    </row>
-    <row r="20" x14ac:dyDescent="0.25">
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1472,8 +1608,14 @@
       <c r="H20">
         <v>25.933333079020183</v>
       </c>
-    </row>
-    <row r="21" x14ac:dyDescent="0.25">
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1495,8 +1637,14 @@
       <c r="H21">
         <v>26.333333333333332</v>
       </c>
-    </row>
-    <row r="22" x14ac:dyDescent="0.25">
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -1518,8 +1666,14 @@
       <c r="H22">
         <v>26.433333079020183</v>
       </c>
-    </row>
-    <row r="23" x14ac:dyDescent="0.25">
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1541,8 +1695,14 @@
       <c r="H23">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="24" x14ac:dyDescent="0.25">
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1564,8 +1724,14 @@
       <c r="H24">
         <v>26.666667302449543</v>
       </c>
-    </row>
-    <row r="25" x14ac:dyDescent="0.25">
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1587,8 +1753,14 @@
       <c r="H25">
         <v>26.700000762939453</v>
       </c>
-    </row>
-    <row r="26" x14ac:dyDescent="0.25">
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1610,8 +1782,14 @@
       <c r="H26">
         <v>26.600000381469727</v>
       </c>
-    </row>
-    <row r="27" x14ac:dyDescent="0.25">
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -1633,8 +1811,14 @@
       <c r="H27">
         <v>26.733333587646484</v>
       </c>
-    </row>
-    <row r="28" x14ac:dyDescent="0.25">
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1656,8 +1840,14 @@
       <c r="H28">
         <v>26.866666158040363</v>
       </c>
-    </row>
-    <row r="29" x14ac:dyDescent="0.25">
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1679,8 +1869,14 @@
       <c r="H29">
         <v>26.899999618530273</v>
       </c>
-    </row>
-    <row r="30" x14ac:dyDescent="0.25">
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1702,8 +1898,14 @@
       <c r="H30">
         <v>26.933333079020183</v>
       </c>
-    </row>
-    <row r="31" x14ac:dyDescent="0.25">
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -1725,8 +1927,14 @@
       <c r="H31">
         <v>26.899999618530273</v>
       </c>
-    </row>
-    <row r="32" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -1748,8 +1956,14 @@
       <c r="H32">
         <v>26.866666158040363</v>
       </c>
-    </row>
-    <row r="33" x14ac:dyDescent="0.25">
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -1771,8 +1985,14 @@
       <c r="H33">
         <v>26.766666412353516</v>
       </c>
-    </row>
-    <row r="34" x14ac:dyDescent="0.25">
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -1794,8 +2014,14 @@
       <c r="H34">
         <v>26.799999237060547</v>
       </c>
-    </row>
-    <row r="35" x14ac:dyDescent="0.25">
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -1817,8 +2043,14 @@
       <c r="H35">
         <v>26.766666412353516</v>
       </c>
-    </row>
-    <row r="36" x14ac:dyDescent="0.25">
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1840,8 +2072,14 @@
       <c r="H36">
         <v>26.799999872843426</v>
       </c>
-    </row>
-    <row r="37" x14ac:dyDescent="0.25">
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>56</v>
       </c>
@@ -1863,8 +2101,14 @@
       <c r="H37">
         <v>26.866666158040363</v>
       </c>
-    </row>
-    <row r="38" x14ac:dyDescent="0.25">
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>57</v>
       </c>
@@ -1886,8 +2130,14 @@
       <c r="H38">
         <v>26.866666158040363</v>
       </c>
-    </row>
-    <row r="39" x14ac:dyDescent="0.25">
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>58</v>
       </c>
@@ -1909,8 +2159,14 @@
       <c r="H39">
         <v>27.03333346048991</v>
       </c>
-    </row>
-    <row r="40" x14ac:dyDescent="0.25">
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>59</v>
       </c>
@@ -1932,8 +2188,14 @@
       <c r="H40">
         <v>27.299999237060547</v>
       </c>
-    </row>
-    <row r="41" x14ac:dyDescent="0.25">
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>60</v>
       </c>
@@ -1955,8 +2217,14 @@
       <c r="H41">
         <v>27.53333346048991</v>
       </c>
-    </row>
-    <row r="42" x14ac:dyDescent="0.25">
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>61</v>
       </c>
@@ -1978,8 +2246,14 @@
       <c r="H42">
         <v>27.799999872843426</v>
       </c>
-    </row>
-    <row r="43" x14ac:dyDescent="0.25">
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -2001,8 +2275,14 @@
       <c r="H43">
         <v>28</v>
       </c>
-    </row>
-    <row r="44" x14ac:dyDescent="0.25">
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>63</v>
       </c>
@@ -2024,8 +2304,14 @@
       <c r="H44">
         <v>28.266666412353516</v>
       </c>
-    </row>
-    <row r="45" x14ac:dyDescent="0.25">
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>64</v>
       </c>
@@ -2047,8 +2333,14 @@
       <c r="H45">
         <v>28.399999618530273</v>
       </c>
-    </row>
-    <row r="46" x14ac:dyDescent="0.25">
+      <c r="W45">
+        <v>1</v>
+      </c>
+      <c r="X45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -2070,8 +2362,14 @@
       <c r="H46">
         <v>28.733333587646484</v>
       </c>
-    </row>
-    <row r="47" x14ac:dyDescent="0.25">
+      <c r="W46">
+        <v>1</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>66</v>
       </c>
@@ -2093,8 +2391,14 @@
       <c r="H47">
         <v>28.899999618530273</v>
       </c>
-    </row>
-    <row r="48" x14ac:dyDescent="0.25">
+      <c r="W47">
+        <v>1</v>
+      </c>
+      <c r="X47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -2116,8 +2420,14 @@
       <c r="H48">
         <v>28.899999618530273</v>
       </c>
-    </row>
-    <row r="49" x14ac:dyDescent="0.25">
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>68</v>
       </c>
@@ -2139,8 +2449,14 @@
       <c r="H49">
         <v>28.933333079020183</v>
       </c>
-    </row>
-    <row r="50" x14ac:dyDescent="0.25">
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>69</v>
       </c>
@@ -2165,8 +2481,14 @@
       <c r="H50">
         <v>29</v>
       </c>
-    </row>
-    <row r="51" x14ac:dyDescent="0.25">
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>70</v>
       </c>
@@ -2191,8 +2513,14 @@
       <c r="H51">
         <v>29.03333346048991</v>
       </c>
-    </row>
-    <row r="52" x14ac:dyDescent="0.25">
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>71</v>
       </c>
@@ -2217,8 +2545,14 @@
       <c r="H52">
         <v>29.166667302449543</v>
       </c>
-    </row>
-    <row r="53" x14ac:dyDescent="0.25">
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>72</v>
       </c>
@@ -2243,8 +2577,14 @@
       <c r="H53">
         <v>29.399999618530273</v>
       </c>
-    </row>
-    <row r="54" x14ac:dyDescent="0.25">
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>73</v>
       </c>
@@ -2281,8 +2621,14 @@
       <c r="U54">
         <v>63206</v>
       </c>
-    </row>
-    <row r="55" x14ac:dyDescent="0.25">
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -2299,7 +2645,7 @@
         <v>117036.66666666667</v>
       </c>
       <c r="F55">
-        <v>301.10000610351562</v>
+        <v>301.10000610351563</v>
       </c>
       <c r="G55">
         <v>2.9933333396911621</v>
@@ -2319,8 +2665,14 @@
       <c r="U55">
         <v>63325</v>
       </c>
-    </row>
-    <row r="56" x14ac:dyDescent="0.25">
+      <c r="W55">
+        <v>1</v>
+      </c>
+      <c r="X55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -2357,8 +2709,14 @@
       <c r="U56">
         <v>65451</v>
       </c>
-    </row>
-    <row r="57" x14ac:dyDescent="0.25">
+      <c r="W56">
+        <v>1</v>
+      </c>
+      <c r="X56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -2395,8 +2753,14 @@
       <c r="U57">
         <v>68181</v>
       </c>
-    </row>
-    <row r="58" x14ac:dyDescent="0.25">
+      <c r="W57">
+        <v>1</v>
+      </c>
+      <c r="X57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -2433,8 +2797,14 @@
       <c r="U58">
         <v>70091</v>
       </c>
-    </row>
-    <row r="59" x14ac:dyDescent="0.25">
+      <c r="W58">
+        <v>1</v>
+      </c>
+      <c r="X58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -2471,8 +2841,14 @@
       <c r="U59">
         <v>71448</v>
       </c>
-    </row>
-    <row r="60" x14ac:dyDescent="0.25">
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -2509,8 +2885,14 @@
       <c r="U60">
         <v>72698</v>
       </c>
-    </row>
-    <row r="61" x14ac:dyDescent="0.25">
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -2547,8 +2929,14 @@
       <c r="U61">
         <v>76292</v>
       </c>
-    </row>
-    <row r="62" x14ac:dyDescent="0.25">
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -2597,8 +2985,14 @@
       <c r="U62">
         <v>77345</v>
       </c>
-    </row>
-    <row r="63" x14ac:dyDescent="0.25">
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>82</v>
       </c>
@@ -2633,7 +3027,7 @@
         <v>20315.999</v>
       </c>
       <c r="N63">
-        <v>4544.3299999999999</v>
+        <v>4544.33</v>
       </c>
       <c r="P63">
         <v>179136</v>
@@ -2647,8 +3041,14 @@
       <c r="U63">
         <v>78453</v>
       </c>
-    </row>
-    <row r="64" x14ac:dyDescent="0.25">
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -2697,8 +3097,14 @@
       <c r="U64">
         <v>79416</v>
       </c>
-    </row>
-    <row r="65" x14ac:dyDescent="0.25">
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -2747,8 +3153,14 @@
       <c r="U65">
         <v>80946</v>
       </c>
-    </row>
-    <row r="66" x14ac:dyDescent="0.25">
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -2797,8 +3209,14 @@
       <c r="U66">
         <v>82040</v>
       </c>
-    </row>
-    <row r="67" x14ac:dyDescent="0.25">
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>86</v>
       </c>
@@ -2847,8 +3265,14 @@
       <c r="U67">
         <v>84363</v>
       </c>
-    </row>
-    <row r="68" x14ac:dyDescent="0.25">
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -2897,8 +3321,14 @@
       <c r="U68">
         <v>86721</v>
       </c>
-    </row>
-    <row r="69" x14ac:dyDescent="0.25">
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>88</v>
       </c>
@@ -2947,8 +3377,14 @@
       <c r="U69">
         <v>89601</v>
       </c>
-    </row>
-    <row r="70" x14ac:dyDescent="0.25">
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>89</v>
       </c>
@@ -2965,7 +3401,7 @@
         <v>123708</v>
       </c>
       <c r="F70">
-        <v>397.60000610351562</v>
+        <v>397.60000610351563</v>
       </c>
       <c r="G70">
         <v>3.5299999713897705</v>
@@ -3000,8 +3436,14 @@
       <c r="U70">
         <v>92663</v>
       </c>
-    </row>
-    <row r="71" x14ac:dyDescent="0.25">
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>90</v>
       </c>
@@ -3053,8 +3495,14 @@
       <c r="U71">
         <v>95192</v>
       </c>
-    </row>
-    <row r="72" x14ac:dyDescent="0.25">
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>91</v>
       </c>
@@ -3106,8 +3554,14 @@
       <c r="U72">
         <v>96613</v>
       </c>
-    </row>
-    <row r="73" x14ac:dyDescent="0.25">
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -3118,7 +3572,7 @@
         <v>69710.333333333328</v>
       </c>
       <c r="D73">
-        <v>119.67666625976562</v>
+        <v>119.67666625976563</v>
       </c>
       <c r="E73">
         <v>125289</v>
@@ -3159,8 +3613,14 @@
       <c r="U73">
         <v>97481</v>
       </c>
-    </row>
-    <row r="74" x14ac:dyDescent="0.25">
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>93</v>
       </c>
@@ -3212,8 +3672,14 @@
       <c r="U74">
         <v>98560</v>
       </c>
-    </row>
-    <row r="75" x14ac:dyDescent="0.25">
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -3265,8 +3731,14 @@
       <c r="U75">
         <v>99940</v>
       </c>
-    </row>
-    <row r="76" x14ac:dyDescent="0.25">
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>95</v>
       </c>
@@ -3318,8 +3790,14 @@
       <c r="U76">
         <v>102169</v>
       </c>
-    </row>
-    <row r="77" x14ac:dyDescent="0.25">
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>96</v>
       </c>
@@ -3371,8 +3849,14 @@
       <c r="U77">
         <v>103353</v>
       </c>
-    </row>
-    <row r="78" x14ac:dyDescent="0.25">
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>97</v>
       </c>
@@ -3424,8 +3908,14 @@
       <c r="U78">
         <v>106423</v>
       </c>
-    </row>
-    <row r="79" x14ac:dyDescent="0.25">
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>98</v>
       </c>
@@ -3477,8 +3967,14 @@
       <c r="U79">
         <v>110773</v>
       </c>
-    </row>
-    <row r="80" x14ac:dyDescent="0.25">
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>99</v>
       </c>
@@ -3530,8 +4026,14 @@
       <c r="U80">
         <v>113461</v>
       </c>
-    </row>
-    <row r="81" x14ac:dyDescent="0.25">
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -3583,8 +4085,14 @@
       <c r="U81">
         <v>115540</v>
       </c>
-    </row>
-    <row r="82" x14ac:dyDescent="0.25">
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -3636,8 +4144,14 @@
       <c r="U82">
         <v>118714</v>
       </c>
-    </row>
-    <row r="83" x14ac:dyDescent="0.25">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -3689,8 +4203,14 @@
       <c r="U83">
         <v>121667</v>
       </c>
-    </row>
-    <row r="84" x14ac:dyDescent="0.25">
+      <c r="W83">
+        <v>0</v>
+      </c>
+      <c r="X83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>103</v>
       </c>
@@ -3742,8 +4262,14 @@
       <c r="U84">
         <v>125991</v>
       </c>
-    </row>
-    <row r="85" x14ac:dyDescent="0.25">
+      <c r="W84">
+        <v>0</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>104</v>
       </c>
@@ -3754,7 +4280,7 @@
         <v>75216.333333333328</v>
       </c>
       <c r="D85">
-        <v>132.72000122070312</v>
+        <v>132.72000122070313</v>
       </c>
       <c r="E85">
         <v>130757.33333333333</v>
@@ -3795,8 +4321,14 @@
       <c r="U85">
         <v>128461</v>
       </c>
-    </row>
-    <row r="86" x14ac:dyDescent="0.25">
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>105</v>
       </c>
@@ -3848,8 +4380,14 @@
       <c r="U86">
         <v>131466</v>
       </c>
-    </row>
-    <row r="87" x14ac:dyDescent="0.25">
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>106</v>
       </c>
@@ -3901,8 +4439,14 @@
       <c r="U87">
         <v>136140</v>
       </c>
-    </row>
-    <row r="88" x14ac:dyDescent="0.25">
+      <c r="W87">
+        <v>0</v>
+      </c>
+      <c r="X87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>107</v>
       </c>
@@ -3954,8 +4498,14 @@
       <c r="U88">
         <v>139342</v>
       </c>
-    </row>
-    <row r="89" x14ac:dyDescent="0.25">
+      <c r="W88">
+        <v>0</v>
+      </c>
+      <c r="X88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -4007,8 +4557,14 @@
       <c r="U89">
         <v>148197</v>
       </c>
-    </row>
-    <row r="90" x14ac:dyDescent="0.25">
+      <c r="W89">
+        <v>0</v>
+      </c>
+      <c r="X89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>109</v>
       </c>
@@ -4060,8 +4616,14 @@
       <c r="U90">
         <v>148965</v>
       </c>
-    </row>
-    <row r="91" x14ac:dyDescent="0.25">
+      <c r="W90">
+        <v>0</v>
+      </c>
+      <c r="X90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>110</v>
       </c>
@@ -4113,8 +4675,14 @@
       <c r="U91">
         <v>153149</v>
       </c>
-    </row>
-    <row r="92" x14ac:dyDescent="0.25">
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>111</v>
       </c>
@@ -4166,8 +4734,14 @@
       <c r="U92">
         <v>156649</v>
       </c>
-    </row>
-    <row r="93" x14ac:dyDescent="0.25">
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>112</v>
       </c>
@@ -4219,8 +4793,14 @@
       <c r="U93">
         <v>163411</v>
       </c>
-    </row>
-    <row r="94" x14ac:dyDescent="0.25">
+      <c r="W93">
+        <v>1</v>
+      </c>
+      <c r="X93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>113</v>
       </c>
@@ -4252,7 +4832,7 @@
         <v>2445.6896999999999</v>
       </c>
       <c r="K94">
-        <v>2643.1799999999998</v>
+        <v>2643.18</v>
       </c>
       <c r="L94">
         <v>15867.623799999999</v>
@@ -4287,8 +4867,14 @@
       <c r="V94">
         <v>20287</v>
       </c>
-    </row>
-    <row r="95" x14ac:dyDescent="0.25">
+      <c r="W94">
+        <v>1</v>
+      </c>
+      <c r="X94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -4320,7 +4906,7 @@
         <v>2436.9353999999998</v>
       </c>
       <c r="K95">
-        <v>2653.9000000000001</v>
+        <v>2653.9</v>
       </c>
       <c r="L95">
         <v>15947.9643</v>
@@ -4355,8 +4941,14 @@
       <c r="V95">
         <v>20417</v>
       </c>
-    </row>
-    <row r="96" x14ac:dyDescent="0.25">
+      <c r="W95">
+        <v>1</v>
+      </c>
+      <c r="X95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>115</v>
       </c>
@@ -4423,8 +5015,14 @@
       <c r="V96">
         <v>20583</v>
       </c>
-    </row>
-    <row r="97" x14ac:dyDescent="0.25">
+      <c r="W96">
+        <v>1</v>
+      </c>
+      <c r="X96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -4491,8 +5089,14 @@
       <c r="V97">
         <v>20762</v>
       </c>
-    </row>
-    <row r="98" x14ac:dyDescent="0.25">
+      <c r="W97">
+        <v>1</v>
+      </c>
+      <c r="X97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>117</v>
       </c>
@@ -4559,8 +5163,14 @@
       <c r="V98">
         <v>20982</v>
       </c>
-    </row>
-    <row r="99" x14ac:dyDescent="0.25">
+      <c r="W98">
+        <v>0</v>
+      </c>
+      <c r="X98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>118</v>
       </c>
@@ -4627,8 +5237,14 @@
       <c r="V99">
         <v>21274</v>
       </c>
-    </row>
-    <row r="100" x14ac:dyDescent="0.25">
+      <c r="W99">
+        <v>0</v>
+      </c>
+      <c r="X99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>119</v>
       </c>
@@ -4695,8 +5311,14 @@
       <c r="V100">
         <v>21607</v>
       </c>
-    </row>
-    <row r="101" x14ac:dyDescent="0.25">
+      <c r="W100">
+        <v>0</v>
+      </c>
+      <c r="X100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>120</v>
       </c>
@@ -4763,8 +5385,14 @@
       <c r="V101">
         <v>21999</v>
       </c>
-    </row>
-    <row r="102" x14ac:dyDescent="0.25">
+      <c r="W101">
+        <v>0</v>
+      </c>
+      <c r="X101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>121</v>
       </c>
@@ -4831,8 +5459,14 @@
       <c r="V102">
         <v>22486</v>
       </c>
-    </row>
-    <row r="103" x14ac:dyDescent="0.25">
+      <c r="W102">
+        <v>0</v>
+      </c>
+      <c r="X102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>122</v>
       </c>
@@ -4843,7 +5477,7 @@
         <v>81875</v>
       </c>
       <c r="D103">
-        <v>143.17666625976562</v>
+        <v>143.17666625976563</v>
       </c>
       <c r="E103">
         <v>143758.66666666666</v>
@@ -4899,8 +5533,14 @@
       <c r="V103">
         <v>22980</v>
       </c>
-    </row>
-    <row r="104" x14ac:dyDescent="0.25">
+      <c r="W103">
+        <v>0</v>
+      </c>
+      <c r="X103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>123</v>
       </c>
@@ -4967,8 +5607,14 @@
       <c r="V104">
         <v>23455</v>
       </c>
-    </row>
-    <row r="105" x14ac:dyDescent="0.25">
+      <c r="W104">
+        <v>0</v>
+      </c>
+      <c r="X104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>124</v>
       </c>
@@ -5035,8 +5681,14 @@
       <c r="V105">
         <v>23940</v>
       </c>
-    </row>
-    <row r="106" x14ac:dyDescent="0.25">
+      <c r="W105">
+        <v>0</v>
+      </c>
+      <c r="X105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>125</v>
       </c>
@@ -5047,7 +5699,7 @@
         <v>83841.666666666672</v>
       </c>
       <c r="D106">
-        <v>147.67666625976562</v>
+        <v>147.67666625976563</v>
       </c>
       <c r="E106">
         <v>145964.33333333334</v>
@@ -5103,8 +5755,14 @@
       <c r="V106">
         <v>24408</v>
       </c>
-    </row>
-    <row r="107" x14ac:dyDescent="0.25">
+      <c r="W106">
+        <v>0</v>
+      </c>
+      <c r="X106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>126</v>
       </c>
@@ -5171,8 +5829,14 @@
       <c r="V107">
         <v>24836</v>
       </c>
-    </row>
-    <row r="108" x14ac:dyDescent="0.25">
+      <c r="W107">
+        <v>0</v>
+      </c>
+      <c r="X107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>127</v>
       </c>
@@ -5239,8 +5903,14 @@
       <c r="V108">
         <v>25204</v>
       </c>
-    </row>
-    <row r="109" x14ac:dyDescent="0.25">
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -5307,8 +5977,14 @@
       <c r="V109">
         <v>25645</v>
       </c>
-    </row>
-    <row r="110" x14ac:dyDescent="0.25">
+      <c r="W109">
+        <v>1</v>
+      </c>
+      <c r="X109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -5375,8 +6051,14 @@
       <c r="V110">
         <v>26113</v>
       </c>
-    </row>
-    <row r="111" x14ac:dyDescent="0.25">
+      <c r="W110">
+        <v>1</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>130</v>
       </c>
@@ -5399,7 +6081,7 @@
         <v>8.1533331871032715</v>
       </c>
       <c r="H111">
-        <v>48.566665649414062</v>
+        <v>48.566665649414063</v>
       </c>
       <c r="I111">
         <v>9090.7062999999998</v>
@@ -5443,8 +6125,14 @@
       <c r="V111">
         <v>26394</v>
       </c>
-    </row>
-    <row r="112" x14ac:dyDescent="0.25">
+      <c r="W111">
+        <v>1</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>131</v>
       </c>
@@ -5511,8 +6199,14 @@
       <c r="V112">
         <v>26581</v>
       </c>
-    </row>
-    <row r="113" x14ac:dyDescent="0.25">
+      <c r="W112">
+        <v>1</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>132</v>
       </c>
@@ -5579,8 +6273,14 @@
       <c r="V113">
         <v>26629</v>
       </c>
-    </row>
-    <row r="114" x14ac:dyDescent="0.25">
+      <c r="W113">
+        <v>1</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -5603,7 +6303,7 @@
         <v>5.75</v>
       </c>
       <c r="H114">
-        <v>52.566665649414062</v>
+        <v>52.566665649414063</v>
       </c>
       <c r="I114">
         <v>9162.4838999999993</v>
@@ -5647,8 +6347,14 @@
       <c r="V114">
         <v>26544</v>
       </c>
-    </row>
-    <row r="115" x14ac:dyDescent="0.25">
+      <c r="W114">
+        <v>1</v>
+      </c>
+      <c r="X114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>134</v>
       </c>
@@ -5715,8 +6421,14 @@
       <c r="V115">
         <v>26464</v>
       </c>
-    </row>
-    <row r="116" x14ac:dyDescent="0.25">
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>135</v>
       </c>
@@ -5783,8 +6495,14 @@
       <c r="V116">
         <v>26532</v>
       </c>
-    </row>
-    <row r="117" x14ac:dyDescent="0.25">
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>136</v>
       </c>
@@ -5851,8 +6569,14 @@
       <c r="V117">
         <v>26750</v>
       </c>
-    </row>
-    <row r="118" x14ac:dyDescent="0.25">
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>137</v>
       </c>
@@ -5919,8 +6643,14 @@
       <c r="V118">
         <v>27031</v>
       </c>
-    </row>
-    <row r="119" x14ac:dyDescent="0.25">
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>138</v>
       </c>
@@ -5952,7 +6682,7 @@
         <v>2448.6061</v>
       </c>
       <c r="K119">
-        <v>2586.9400000000001</v>
+        <v>2586.94</v>
       </c>
       <c r="L119">
         <v>17280.046999999999</v>
@@ -5987,8 +6717,14 @@
       <c r="V119">
         <v>27312</v>
       </c>
-    </row>
-    <row r="120" x14ac:dyDescent="0.25">
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>139</v>
       </c>
@@ -6055,8 +6791,14 @@
       <c r="V120">
         <v>27594</v>
       </c>
-    </row>
-    <row r="121" x14ac:dyDescent="0.25">
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>140</v>
       </c>
@@ -6123,8 +6865,14 @@
       <c r="V121">
         <v>27864</v>
       </c>
-    </row>
-    <row r="122" x14ac:dyDescent="0.25">
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -6191,8 +6939,14 @@
       <c r="V122">
         <v>28080</v>
       </c>
-    </row>
-    <row r="123" x14ac:dyDescent="0.25">
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -6259,8 +7013,14 @@
       <c r="V123">
         <v>28194</v>
       </c>
-    </row>
-    <row r="124" x14ac:dyDescent="0.25">
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>143</v>
       </c>
@@ -6283,7 +7043,7 @@
         <v>5.4966665903727217</v>
       </c>
       <c r="H124">
-        <v>61.066665649414062</v>
+        <v>61.066665649414063</v>
       </c>
       <c r="I124">
         <v>9682.9634999999998</v>
@@ -6327,8 +7087,14 @@
       <c r="V124">
         <v>28257</v>
       </c>
-    </row>
-    <row r="125" x14ac:dyDescent="0.25">
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>144</v>
       </c>
@@ -6395,8 +7161,14 @@
       <c r="V125">
         <v>28388</v>
       </c>
-    </row>
-    <row r="126" x14ac:dyDescent="0.25">
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>145</v>
       </c>
@@ -6463,8 +7235,14 @@
       <c r="V126">
         <v>28551</v>
       </c>
-    </row>
-    <row r="127" x14ac:dyDescent="0.25">
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>146</v>
       </c>
@@ -6531,8 +7309,14 @@
       <c r="V127">
         <v>28637</v>
       </c>
-    </row>
-    <row r="128" x14ac:dyDescent="0.25">
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>147</v>
       </c>
@@ -6599,8 +7383,14 @@
       <c r="V128">
         <v>28694</v>
       </c>
-    </row>
-    <row r="129" x14ac:dyDescent="0.25">
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>148</v>
       </c>
@@ -6667,8 +7457,14 @@
       <c r="V129">
         <v>28687</v>
       </c>
-    </row>
-    <row r="130" x14ac:dyDescent="0.25">
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -6700,7 +7496,7 @@
         <v>2494.6707999999999</v>
       </c>
       <c r="K130">
-        <v>2635.8800000000001</v>
+        <v>2635.88</v>
       </c>
       <c r="L130">
         <v>17638.367699999999</v>
@@ -6735,8 +7531,14 @@
       <c r="V130">
         <v>28576</v>
       </c>
-    </row>
-    <row r="131" x14ac:dyDescent="0.25">
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -6747,7 +7549,7 @@
         <v>98371</v>
       </c>
       <c r="D131">
-        <v>169.17666625976562</v>
+        <v>169.17666625976563</v>
       </c>
       <c r="E131">
         <v>164447.33333333334</v>
@@ -6803,8 +7605,14 @@
       <c r="V131">
         <v>28574</v>
       </c>
-    </row>
-    <row r="132" x14ac:dyDescent="0.25">
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -6871,8 +7679,14 @@
       <c r="V132">
         <v>28659</v>
       </c>
-    </row>
-    <row r="133" x14ac:dyDescent="0.25">
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>152</v>
       </c>
@@ -6939,8 +7753,14 @@
       <c r="V133">
         <v>28809</v>
       </c>
-    </row>
-    <row r="134" x14ac:dyDescent="0.25">
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>153</v>
       </c>
@@ -7007,8 +7827,14 @@
       <c r="V134">
         <v>29019</v>
       </c>
-    </row>
-    <row r="135" x14ac:dyDescent="0.25">
+      <c r="W134">
+        <v>1</v>
+      </c>
+      <c r="X134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -7075,8 +7901,14 @@
       <c r="V135">
         <v>29062</v>
       </c>
-    </row>
-    <row r="136" x14ac:dyDescent="0.25">
+      <c r="W135">
+        <v>1</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -7143,8 +7975,14 @@
       <c r="V136">
         <v>29031</v>
       </c>
-    </row>
-    <row r="137" x14ac:dyDescent="0.25">
+      <c r="W136">
+        <v>1</v>
+      </c>
+      <c r="X136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>156</v>
       </c>
@@ -7167,7 +8005,7 @@
         <v>13.613333066304525</v>
       </c>
       <c r="H137">
-        <v>85.566665649414062</v>
+        <v>85.566665649414063</v>
       </c>
       <c r="I137">
         <v>10842.2459</v>
@@ -7211,8 +8049,14 @@
       <c r="V137">
         <v>28998</v>
       </c>
-    </row>
-    <row r="138" x14ac:dyDescent="0.25">
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>157</v>
       </c>
@@ -7279,8 +8123,14 @@
       <c r="V138">
         <v>28878</v>
       </c>
-    </row>
-    <row r="139" x14ac:dyDescent="0.25">
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>158</v>
       </c>
@@ -7347,8 +8197,14 @@
       <c r="V139">
         <v>28920</v>
       </c>
-    </row>
-    <row r="140" x14ac:dyDescent="0.25">
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>159</v>
       </c>
@@ -7415,8 +8271,14 @@
       <c r="V140">
         <v>29010</v>
       </c>
-    </row>
-    <row r="141" x14ac:dyDescent="0.25">
+      <c r="W140">
+        <v>1</v>
+      </c>
+      <c r="X140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>160</v>
       </c>
@@ -7483,8 +8345,14 @@
       <c r="V141">
         <v>29096</v>
       </c>
-    </row>
-    <row r="142" x14ac:dyDescent="0.25">
+      <c r="W141">
+        <v>1</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>161</v>
       </c>
@@ -7551,8 +8419,14 @@
       <c r="V142">
         <v>29252</v>
       </c>
-    </row>
-    <row r="143" x14ac:dyDescent="0.25">
+      <c r="W142">
+        <v>1</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>162</v>
       </c>
@@ -7619,8 +8493,14 @@
       <c r="V143">
         <v>29394</v>
       </c>
-    </row>
-    <row r="144" x14ac:dyDescent="0.25">
+      <c r="W143">
+        <v>1</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>163</v>
       </c>
@@ -7687,8 +8567,14 @@
       <c r="V144">
         <v>29484</v>
       </c>
-    </row>
-    <row r="145" x14ac:dyDescent="0.25">
+      <c r="W144">
+        <v>1</v>
+      </c>
+      <c r="X144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>164</v>
       </c>
@@ -7755,8 +8641,14 @@
       <c r="V145">
         <v>29588</v>
       </c>
-    </row>
-    <row r="146" x14ac:dyDescent="0.25">
+      <c r="W145">
+        <v>1</v>
+      </c>
+      <c r="X145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>165</v>
       </c>
@@ -7823,8 +8715,14 @@
       <c r="V146">
         <v>29812</v>
       </c>
-    </row>
-    <row r="147" x14ac:dyDescent="0.25">
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>166</v>
       </c>
@@ -7856,7 +8754,7 @@
         <v>2330.6318000000001</v>
       </c>
       <c r="K147">
-        <v>2623.0999999999999</v>
+        <v>2623.1</v>
       </c>
       <c r="L147">
         <v>17741.815999999999</v>
@@ -7891,8 +8789,14 @@
       <c r="V147">
         <v>30028</v>
       </c>
-    </row>
-    <row r="148" x14ac:dyDescent="0.25">
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>167</v>
       </c>
@@ -7959,8 +8863,14 @@
       <c r="V148">
         <v>30178</v>
       </c>
-    </row>
-    <row r="149" x14ac:dyDescent="0.25">
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>168</v>
       </c>
@@ -8027,8 +8937,14 @@
       <c r="V149">
         <v>30314</v>
       </c>
-    </row>
-    <row r="150" x14ac:dyDescent="0.25">
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>169</v>
       </c>
@@ -8095,8 +9011,14 @@
       <c r="V150">
         <v>30361</v>
       </c>
-    </row>
-    <row r="151" x14ac:dyDescent="0.25">
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>170</v>
       </c>
@@ -8163,8 +9085,14 @@
       <c r="V151">
         <v>30441</v>
       </c>
-    </row>
-    <row r="152" x14ac:dyDescent="0.25">
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>171</v>
       </c>
@@ -8231,8 +9159,14 @@
       <c r="V152">
         <v>30567</v>
       </c>
-    </row>
-    <row r="153" x14ac:dyDescent="0.25">
+      <c r="W152">
+        <v>0</v>
+      </c>
+      <c r="X152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
         <v>172</v>
       </c>
@@ -8299,8 +9233,14 @@
       <c r="V153">
         <v>30728</v>
       </c>
-    </row>
-    <row r="154" x14ac:dyDescent="0.25">
+      <c r="W153">
+        <v>0</v>
+      </c>
+      <c r="X153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
         <v>173</v>
       </c>
@@ -8367,8 +9307,14 @@
       <c r="V154">
         <v>30974</v>
       </c>
-    </row>
-    <row r="155" x14ac:dyDescent="0.25">
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="X154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
         <v>174</v>
       </c>
@@ -8400,7 +9346,7 @@
         <v>2422.2381999999998</v>
       </c>
       <c r="K155">
-        <v>2644.6799999999998</v>
+        <v>2644.68</v>
       </c>
       <c r="L155">
         <v>17580.3043</v>
@@ -8435,8 +9381,14 @@
       <c r="V155">
         <v>31198</v>
       </c>
-    </row>
-    <row r="156" x14ac:dyDescent="0.25">
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="X155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
         <v>175</v>
       </c>
@@ -8456,7 +9408,7 @@
         <v>2517.8333333333335</v>
       </c>
       <c r="G156">
-        <v>7.1066665649414062</v>
+        <v>7.1066665649414063</v>
       </c>
       <c r="H156">
         <v>107.89999898274739</v>
@@ -8503,8 +9455,14 @@
       <c r="V156">
         <v>31449</v>
       </c>
-    </row>
-    <row r="157" x14ac:dyDescent="0.25">
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="X156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
         <v>176</v>
       </c>
@@ -8571,8 +9529,14 @@
       <c r="V157">
         <v>31666</v>
       </c>
-    </row>
-    <row r="158" x14ac:dyDescent="0.25">
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="X157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
         <v>177</v>
       </c>
@@ -8639,8 +9603,14 @@
       <c r="V158">
         <v>31822</v>
       </c>
-    </row>
-    <row r="159" x14ac:dyDescent="0.25">
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="X158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
         <v>178</v>
       </c>
@@ -8672,7 +9642,7 @@
         <v>2425.0956999999999</v>
       </c>
       <c r="K159">
-        <v>2681.5599999999999</v>
+        <v>2681.56</v>
       </c>
       <c r="L159">
         <v>17683.449199999999</v>
@@ -8707,8 +9677,14 @@
       <c r="V159">
         <v>32110</v>
       </c>
-    </row>
-    <row r="160" x14ac:dyDescent="0.25">
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="X159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
         <v>179</v>
       </c>
@@ -8775,8 +9751,14 @@
       <c r="V160">
         <v>32475</v>
       </c>
-    </row>
-    <row r="161" x14ac:dyDescent="0.25">
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="X160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>180</v>
       </c>
@@ -8843,8 +9825,14 @@
       <c r="V161">
         <v>32888</v>
       </c>
-    </row>
-    <row r="162" x14ac:dyDescent="0.25">
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="X161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
         <v>181</v>
       </c>
@@ -8870,7 +9858,7 @@
         <v>111.90000152587891</v>
       </c>
       <c r="I162">
-        <v>11670.450000000001</v>
+        <v>11670.45</v>
       </c>
       <c r="J162">
         <v>2450.5432000000001</v>
@@ -8911,8 +9899,14 @@
       <c r="V162">
         <v>33396</v>
       </c>
-    </row>
-    <row r="163" x14ac:dyDescent="0.25">
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="X162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
         <v>182</v>
       </c>
@@ -8979,8 +9973,14 @@
       <c r="V163">
         <v>33915</v>
       </c>
-    </row>
-    <row r="164" x14ac:dyDescent="0.25">
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="X163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
         <v>183</v>
       </c>
@@ -9047,8 +10047,14 @@
       <c r="V164">
         <v>34415</v>
       </c>
-    </row>
-    <row r="165" x14ac:dyDescent="0.25">
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="X164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
         <v>184</v>
       </c>
@@ -9115,8 +10121,14 @@
       <c r="V165">
         <v>34863</v>
       </c>
-    </row>
-    <row r="166" x14ac:dyDescent="0.25">
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="X165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
         <v>185</v>
       </c>
@@ -9183,8 +10195,14 @@
       <c r="V166">
         <v>35284</v>
       </c>
-    </row>
-    <row r="167" x14ac:dyDescent="0.25">
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="X166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
         <v>186</v>
       </c>
@@ -9207,7 +10225,7 @@
         <v>6.2100000381469727</v>
       </c>
       <c r="H167">
-        <v>117.63333129882812</v>
+        <v>117.63333129882813</v>
       </c>
       <c r="I167">
         <v>12225.403</v>
@@ -9251,8 +10269,14 @@
       <c r="V167">
         <v>35723</v>
       </c>
-    </row>
-    <row r="168" x14ac:dyDescent="0.25">
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="X167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
         <v>187</v>
       </c>
@@ -9319,8 +10343,14 @@
       <c r="V168">
         <v>36110</v>
       </c>
-    </row>
-    <row r="169" x14ac:dyDescent="0.25">
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="X168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
         <v>188</v>
       </c>
@@ -9387,8 +10417,14 @@
       <c r="V169">
         <v>36522</v>
       </c>
-    </row>
-    <row r="170" x14ac:dyDescent="0.25">
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
         <v>189</v>
       </c>
@@ -9455,8 +10491,14 @@
       <c r="V170">
         <v>36967</v>
       </c>
-    </row>
-    <row r="171" x14ac:dyDescent="0.25">
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="X170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
         <v>190</v>
       </c>
@@ -9523,8 +10565,14 @@
       <c r="V171">
         <v>37418</v>
       </c>
-    </row>
-    <row r="172" x14ac:dyDescent="0.25">
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="X171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
         <v>191</v>
       </c>
@@ -9591,8 +10639,14 @@
       <c r="V172">
         <v>37840</v>
       </c>
-    </row>
-    <row r="173" x14ac:dyDescent="0.25">
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="X172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
         <v>192</v>
       </c>
@@ -9659,8 +10713,14 @@
       <c r="V173">
         <v>38221</v>
       </c>
-    </row>
-    <row r="174" x14ac:dyDescent="0.25">
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="X173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
         <v>193</v>
       </c>
@@ -9727,8 +10787,14 @@
       <c r="V174">
         <v>38586</v>
       </c>
-    </row>
-    <row r="175" x14ac:dyDescent="0.25">
+      <c r="W174">
+        <v>0</v>
+      </c>
+      <c r="X174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
         <v>194</v>
       </c>
@@ -9760,7 +10826,7 @@
         <v>2659.0695999999998</v>
       </c>
       <c r="K175">
-        <v>2830.3800000000001</v>
+        <v>2830.38</v>
       </c>
       <c r="L175">
         <v>18585.4221</v>
@@ -9795,8 +10861,14 @@
       <c r="V175">
         <v>38892</v>
       </c>
-    </row>
-    <row r="176" x14ac:dyDescent="0.25">
+      <c r="W175">
+        <v>0</v>
+      </c>
+      <c r="X175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
         <v>195</v>
       </c>
@@ -9863,8 +10935,14 @@
       <c r="V176">
         <v>39166</v>
       </c>
-    </row>
-    <row r="177" x14ac:dyDescent="0.25">
+      <c r="W176">
+        <v>1</v>
+      </c>
+      <c r="X176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
         <v>196</v>
       </c>
@@ -9931,8 +11009,14 @@
       <c r="V177">
         <v>39429</v>
       </c>
-    </row>
-    <row r="178" x14ac:dyDescent="0.25">
+      <c r="W177">
+        <v>1</v>
+      </c>
+      <c r="X177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
         <v>197</v>
       </c>
@@ -9999,8 +11083,14 @@
       <c r="V178">
         <v>39589</v>
       </c>
-    </row>
-    <row r="179" x14ac:dyDescent="0.25">
+      <c r="W178">
+        <v>1</v>
+      </c>
+      <c r="X178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
         <v>198</v>
       </c>
@@ -10011,7 +11101,7 @@
         <v>116978.33333333333</v>
       </c>
       <c r="D179">
-        <v>199.29800415039062</v>
+        <v>199.29800415039063</v>
       </c>
       <c r="E179">
         <v>189523.33333333334</v>
@@ -10067,8 +11157,14 @@
       <c r="V179">
         <v>39763</v>
       </c>
-    </row>
-    <row r="180" x14ac:dyDescent="0.25">
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
         <v>199</v>
       </c>
@@ -10135,8 +11231,14 @@
       <c r="V180">
         <v>40014</v>
       </c>
-    </row>
-    <row r="181" x14ac:dyDescent="0.25">
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
         <v>200</v>
       </c>
@@ -10177,7 +11279,7 @@
         <v>21610.648399999998</v>
       </c>
       <c r="N181">
-        <v>6388.6999999999998</v>
+        <v>6388.7</v>
       </c>
       <c r="O181">
         <v>12559</v>
@@ -10203,8 +11305,14 @@
       <c r="V181">
         <v>40205</v>
       </c>
-    </row>
-    <row r="182" x14ac:dyDescent="0.25">
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
         <v>201</v>
       </c>
@@ -10236,7 +11344,7 @@
         <v>2550.8000000000002</v>
       </c>
       <c r="K182">
-        <v>2950.0999999999999</v>
+        <v>2950.1</v>
       </c>
       <c r="L182">
         <v>18668</v>
@@ -10245,7 +11353,7 @@
         <v>21525</v>
       </c>
       <c r="N182">
-        <v>6426.1999999999998</v>
+        <v>6426.2</v>
       </c>
       <c r="O182">
         <v>12449</v>
@@ -10271,8 +11379,14 @@
       <c r="V182">
         <v>40309</v>
       </c>
-    </row>
-    <row r="183" x14ac:dyDescent="0.25">
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
         <v>202</v>
       </c>
@@ -10304,7 +11418,7 @@
         <v>2532</v>
       </c>
       <c r="K183">
-        <v>2947.3000000000002</v>
+        <v>2947.3</v>
       </c>
       <c r="L183">
         <v>18739</v>
@@ -10316,7 +11430,7 @@
         <v>6407.5</v>
       </c>
       <c r="O183">
-        <v>12457.700000000001</v>
+        <v>12457.7</v>
       </c>
       <c r="P183">
         <v>558008</v>
@@ -10339,8 +11453,14 @@
       <c r="V183">
         <v>40296</v>
       </c>
-    </row>
-    <row r="184" x14ac:dyDescent="0.25">
+      <c r="W183">
+        <v>0</v>
+      </c>
+      <c r="X183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
         <v>203</v>
       </c>
@@ -10372,7 +11492,7 @@
         <v>2505.2000000000003</v>
       </c>
       <c r="K184">
-        <v>2944.4000000000001</v>
+        <v>2944.4</v>
       </c>
       <c r="L184">
         <v>18731</v>
@@ -10381,7 +11501,7 @@
         <v>21396</v>
       </c>
       <c r="N184">
-        <v>6413.6999999999998</v>
+        <v>6413.7</v>
       </c>
       <c r="O184">
         <v>12412.4</v>
@@ -10407,8 +11527,14 @@
       <c r="V184">
         <v>40162</v>
       </c>
-    </row>
-    <row r="185" x14ac:dyDescent="0.25">
+      <c r="W184">
+        <v>0</v>
+      </c>
+      <c r="X184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
         <v>204</v>
       </c>
@@ -10437,10 +11563,10 @@
         <v>12325</v>
       </c>
       <c r="J185">
-        <v>2497.0999999999999</v>
+        <v>2497.1</v>
       </c>
       <c r="K185">
-        <v>2935.8000000000002</v>
+        <v>2935.8</v>
       </c>
       <c r="L185">
         <v>18506</v>
@@ -10449,7 +11575,7 @@
         <v>21097</v>
       </c>
       <c r="N185">
-        <v>6451.1000000000004</v>
+        <v>6451.1</v>
       </c>
       <c r="O185">
         <v>12145.9</v>
@@ -10475,8 +11601,14 @@
       <c r="V185">
         <v>39911</v>
       </c>
-    </row>
-    <row r="186" x14ac:dyDescent="0.25">
+      <c r="W185">
+        <v>0</v>
+      </c>
+      <c r="X185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
         <v>205</v>
       </c>
@@ -10505,7 +11637,7 @@
         <v>12401</v>
       </c>
       <c r="J186">
-        <v>2489.0999999999999</v>
+        <v>2489.1</v>
       </c>
       <c r="K186">
         <v>2918.5</v>
@@ -10520,7 +11652,7 @@
         <v>6432.4000000000005</v>
       </c>
       <c r="O186">
-        <v>11881.700000000001</v>
+        <v>11881.7</v>
       </c>
       <c r="P186">
         <v>563824</v>
@@ -10543,8 +11675,14 @@
       <c r="V186">
         <v>39760</v>
       </c>
-    </row>
-    <row r="187" x14ac:dyDescent="0.25">
+      <c r="W186">
+        <v>0</v>
+      </c>
+      <c r="X186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
         <v>206</v>
       </c>
@@ -10585,7 +11723,7 @@
         <v>20433</v>
       </c>
       <c r="N187">
-        <v>6426.1999999999998</v>
+        <v>6426.2</v>
       </c>
       <c r="O187">
         <v>11867.6</v>
@@ -10611,8 +11749,14 @@
       <c r="V187">
         <v>39656</v>
       </c>
-    </row>
-    <row r="188" x14ac:dyDescent="0.25">
+      <c r="W187">
+        <v>0</v>
+      </c>
+      <c r="X187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
         <v>207</v>
       </c>
@@ -10679,8 +11823,14 @@
       <c r="V188">
         <v>39672</v>
       </c>
-    </row>
-    <row r="189" x14ac:dyDescent="0.25">
+      <c r="W188">
+        <v>0</v>
+      </c>
+      <c r="X188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
         <v>208</v>
       </c>
@@ -10721,7 +11871,7 @@
         <v>20155</v>
       </c>
       <c r="N189">
-        <v>6451.1000000000004</v>
+        <v>6451.1</v>
       </c>
       <c r="O189">
         <v>11723.5</v>
@@ -10747,8 +11897,14 @@
       <c r="V189">
         <v>39814</v>
       </c>
-    </row>
-    <row r="190" x14ac:dyDescent="0.25">
+      <c r="W189">
+        <v>0</v>
+      </c>
+      <c r="X189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
         <v>209</v>
       </c>
@@ -10777,10 +11933,10 @@
         <v>12552</v>
       </c>
       <c r="J190">
-        <v>2494.4000000000001</v>
+        <v>2494.4</v>
       </c>
       <c r="K190">
-        <v>2872.5999999999999</v>
+        <v>2872.6</v>
       </c>
       <c r="L190">
         <v>18360</v>
@@ -10815,8 +11971,14 @@
       <c r="V190">
         <v>40107</v>
       </c>
-    </row>
-    <row r="191" x14ac:dyDescent="0.25">
+      <c r="W190">
+        <v>0</v>
+      </c>
+      <c r="X190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
         <v>210</v>
       </c>
@@ -10845,10 +12007,10 @@
         <v>12653</v>
       </c>
       <c r="J191">
-        <v>2494.4000000000001</v>
+        <v>2494.4</v>
       </c>
       <c r="K191">
-        <v>2863.9000000000001</v>
+        <v>2863.9</v>
       </c>
       <c r="L191">
         <v>18562</v>
@@ -10857,7 +12019,7 @@
         <v>19856</v>
       </c>
       <c r="N191">
-        <v>6451.1000000000004</v>
+        <v>6451.1</v>
       </c>
       <c r="O191">
         <v>11761</v>
@@ -10883,8 +12045,14 @@
       <c r="V191">
         <v>40379</v>
       </c>
-    </row>
-    <row r="192" x14ac:dyDescent="0.25">
+      <c r="W191">
+        <v>0</v>
+      </c>
+      <c r="X191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
         <v>211</v>
       </c>
@@ -10907,7 +12075,7 @@
         <v>4.476666609446208</v>
       </c>
       <c r="H192">
-        <v>148.99966430664062</v>
+        <v>148.99966430664063</v>
       </c>
       <c r="I192">
         <v>12779</v>
@@ -10916,7 +12084,7 @@
         <v>2510.5</v>
       </c>
       <c r="K192">
-        <v>2863.9000000000001</v>
+        <v>2863.9</v>
       </c>
       <c r="L192">
         <v>18634</v>
@@ -10925,7 +12093,7 @@
         <v>19706</v>
       </c>
       <c r="N192">
-        <v>6438.6000000000004</v>
+        <v>6438.6</v>
       </c>
       <c r="O192">
         <v>11748</v>
@@ -10951,8 +12119,14 @@
       <c r="V192">
         <v>40628</v>
       </c>
-    </row>
-    <row r="193" x14ac:dyDescent="0.25">
+      <c r="W192">
+        <v>0</v>
+      </c>
+      <c r="X192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>212</v>
       </c>
@@ -10981,13 +12155,13 @@
         <v>12854</v>
       </c>
       <c r="K193">
-        <v>2866.8000000000002</v>
+        <v>2866.8</v>
       </c>
       <c r="L193">
         <v>18542</v>
       </c>
       <c r="N193">
-        <v>6426.1999999999998</v>
+        <v>6426.2</v>
       </c>
       <c r="O193">
         <v>11799</v>
@@ -11013,9 +12187,15 @@
       <c r="V193">
         <v>40933</v>
       </c>
+      <c r="W193">
+        <v>0</v>
+      </c>
+      <c r="X193">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshu\Aussie\Monash\Macroeconometrics\Replicate\MillikenRepGali1999\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC5BF8B-95BA-4447-9BD5-F6CC710EC7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED2979A-1AB2-4F68-942D-7B6F3536086B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>GDPQ</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>NBERG</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -1007,8 +1010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1018,6 +1021,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
